--- a/data/financial_statements/sofp/HRL.xlsx
+++ b/data/financial_statements/sofp/HRL.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t>2022-10-31</t>
+  </si>
+  <si>
+    <t>2022-07-31</t>
+  </si>
+  <si>
+    <t>2022-04-30</t>
+  </si>
+  <si>
+    <t>2022-01-31</t>
+  </si>
+  <si>
+    <t>2021-10-31</t>
+  </si>
+  <si>
+    <t>2021-07-31</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>2020-10-31</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>2020-04-30</t>
+  </si>
+  <si>
+    <t>2020-01-31</t>
+  </si>
+  <si>
+    <t>2019-10-31</t>
+  </si>
+  <si>
+    <t>2019-07-31</t>
+  </si>
+  <si>
+    <t>2019-04-30</t>
+  </si>
+  <si>
+    <t>2019-01-31</t>
+  </si>
+  <si>
+    <t>2018-10-31</t>
+  </si>
+  <si>
+    <t>2018-07-31</t>
+  </si>
+  <si>
+    <t>2018-04-30</t>
+  </si>
+  <si>
+    <t>2018-01-31</t>
+  </si>
+  <si>
+    <t>2017-10-31</t>
+  </si>
+  <si>
+    <t>2017-07-31</t>
+  </si>
+  <si>
+    <t>2017-04-30</t>
+  </si>
+  <si>
+    <t>2017-01-31</t>
+  </si>
+  <si>
+    <t>2016-10-31</t>
+  </si>
+  <si>
+    <t>2016-07-31</t>
+  </si>
+  <si>
+    <t>2016-04-30</t>
+  </si>
+  <si>
+    <t>2016-01-31</t>
+  </si>
+  <si>
+    <t>2015-10-31</t>
+  </si>
+  <si>
+    <t>2015-07-31</t>
+  </si>
+  <si>
+    <t>2015-04-30</t>
+  </si>
+  <si>
+    <t>2015-01-31</t>
+  </si>
+  <si>
+    <t>2014-10-31</t>
+  </si>
+  <si>
+    <t>2014-07-31</t>
+  </si>
+  <si>
+    <t>2014-04-30</t>
+  </si>
+  <si>
+    <t>2014-01-31</t>
+  </si>
+  <si>
+    <t>2013-10-31</t>
+  </si>
+  <si>
+    <t>2013-07-31</t>
+  </si>
+  <si>
+    <t>2013-04-30</t>
+  </si>
+  <si>
+    <t>2013-01-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -131,9 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -186,12 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -496,147 +610,147 @@
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44865</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44773</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44681</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44592</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44500</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44408</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44316</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44227</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44135</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44043</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43951</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43861</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43769</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43677</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43585</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43496</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43404</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43312</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43220</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43131</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43039</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42947</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42855</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42766</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42674</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42582</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42490</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42400</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42308</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42216</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42124</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42035</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41943</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41851</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41759</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41670</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41578</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41486</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41394</v>
-      </c>
-      <c r="AO1" s="2">
-        <v>41305</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>998000000</v>
+        <v>998256000</v>
       </c>
       <c r="C2">
-        <v>869000000</v>
+        <v>868658000</v>
       </c>
       <c r="D2">
-        <v>885000000</v>
+        <v>885197000</v>
       </c>
       <c r="E2">
-        <v>847000000</v>
+        <v>846628100</v>
       </c>
       <c r="F2">
-        <v>635000000</v>
+        <v>634692000</v>
       </c>
       <c r="G2">
         <v>309735000</v>
@@ -745,23 +859,23 @@
       </c>
     </row>
     <row r="3" spans="1:41">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
-        <v>875000000</v>
+        <v>874770000</v>
       </c>
       <c r="C3">
-        <v>811000000</v>
+        <v>810582900</v>
       </c>
       <c r="D3">
-        <v>803000000</v>
+        <v>803055000</v>
       </c>
       <c r="E3">
-        <v>820000000</v>
+        <v>820405000</v>
       </c>
       <c r="F3">
-        <v>904000000</v>
+        <v>904012000</v>
       </c>
       <c r="G3">
         <v>912416000</v>
@@ -870,23 +984,23 @@
       </c>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
-        <v>1716000000</v>
+        <v>1716059000</v>
       </c>
       <c r="C4">
-        <v>1679000000</v>
+        <v>1679179000</v>
       </c>
       <c r="D4">
-        <v>1597000000</v>
+        <v>1597001000</v>
       </c>
       <c r="E4">
-        <v>1386000000</v>
+        <v>1385705000</v>
       </c>
       <c r="F4">
-        <v>1369000000</v>
+        <v>1369198000</v>
       </c>
       <c r="G4">
         <v>1426738000</v>
@@ -995,8 +1109,8 @@
       </c>
     </row>
     <row r="5" spans="1:41">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
         <v>48000000</v>
@@ -1005,7 +1119,7 @@
         <v>45000000</v>
       </c>
       <c r="D5">
-        <v>88000000</v>
+        <v>56826000</v>
       </c>
       <c r="E5">
         <v>41000000</v>
@@ -1120,23 +1234,23 @@
       </c>
     </row>
     <row r="6" spans="1:41">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
-        <v>3637000000</v>
+        <v>3637125000</v>
       </c>
       <c r="C6">
-        <v>3403000000</v>
+        <v>3403484000</v>
       </c>
       <c r="D6">
-        <v>3374000000</v>
+        <v>3373557000</v>
       </c>
       <c r="E6">
-        <v>3093000000</v>
+        <v>3093350000</v>
       </c>
       <c r="F6">
-        <v>2948000000</v>
+        <v>2947816000</v>
       </c>
       <c r="G6">
         <v>2688672000</v>
@@ -1245,23 +1359,23 @@
       </c>
     </row>
     <row r="7" spans="1:41">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>2215000000</v>
+        <v>2141146000</v>
       </c>
       <c r="C7">
-        <v>2118000000</v>
+        <v>2118067000</v>
       </c>
       <c r="D7">
-        <v>2124000000</v>
+        <v>2123595000</v>
       </c>
       <c r="E7">
-        <v>2102000000</v>
+        <v>2101835000</v>
       </c>
       <c r="F7">
-        <v>2181000000</v>
+        <v>2109117000</v>
       </c>
       <c r="G7">
         <v>2067141000</v>
@@ -1370,23 +1484,23 @@
       </c>
     </row>
     <row r="8" spans="1:41">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
-        <v>271000000</v>
+        <v>271058000</v>
       </c>
       <c r="C8">
-        <v>278000000</v>
+        <v>277727000</v>
       </c>
       <c r="D8">
-        <v>276000000</v>
+        <v>275849000</v>
       </c>
       <c r="E8">
-        <v>286000000</v>
+        <v>286493000</v>
       </c>
       <c r="F8">
-        <v>299000000</v>
+        <v>299019000</v>
       </c>
       <c r="G8">
         <v>304417000</v>
@@ -1495,23 +1609,23 @@
       </c>
     </row>
     <row r="9" spans="1:41">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
-        <v>6729000000</v>
+        <v>6728856000</v>
       </c>
       <c r="C9">
-        <v>6738000000</v>
+        <v>6737572000</v>
       </c>
       <c r="D9">
-        <v>6750000000</v>
+        <v>6750333000</v>
       </c>
       <c r="E9">
-        <v>6745000000</v>
+        <v>6745304000</v>
       </c>
       <c r="F9">
-        <v>6751000000</v>
+        <v>6751375000</v>
       </c>
       <c r="G9">
         <v>6770786000</v>
@@ -1620,8 +1734,8 @@
       </c>
     </row>
     <row r="10" spans="1:41">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="Z10">
         <v>6223000</v>
@@ -1658,23 +1772,23 @@
       </c>
     </row>
     <row r="11" spans="1:41">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
-        <v>455000000</v>
+        <v>283169000</v>
       </c>
       <c r="C11">
-        <v>604000000</v>
+        <v>292412000</v>
       </c>
       <c r="D11">
-        <v>599000000</v>
+        <v>295127000</v>
       </c>
       <c r="E11">
-        <v>600000000</v>
+        <v>303577000</v>
       </c>
       <c r="F11">
-        <v>517000000</v>
+        <v>299907000</v>
       </c>
       <c r="G11">
         <v>298071000</v>
@@ -1783,8 +1897,8 @@
       </c>
     </row>
     <row r="12" spans="1:41">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
         <v>9669796000</v>
@@ -1908,23 +2022,23 @@
       </c>
     </row>
     <row r="13" spans="1:41">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
-        <v>13307000000</v>
+        <v>13306920000</v>
       </c>
       <c r="C13">
-        <v>13140000000</v>
+        <v>13140420000</v>
       </c>
       <c r="D13">
-        <v>13122000000</v>
+        <v>13122260000</v>
       </c>
       <c r="E13">
-        <v>12827000000</v>
+        <v>12827010000</v>
       </c>
       <c r="F13">
-        <v>12696000000</v>
+        <v>12696330000</v>
       </c>
       <c r="G13">
         <v>12332180000</v>
@@ -2033,8 +2147,8 @@
       </c>
     </row>
     <row r="14" spans="1:41">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="S14">
         <v>95000000</v>
@@ -2056,23 +2170,23 @@
       </c>
     </row>
     <row r="15" spans="1:41">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
-        <v>817000000</v>
+        <v>816604000</v>
       </c>
       <c r="C15">
-        <v>797000000</v>
+        <v>799202000</v>
       </c>
       <c r="D15">
-        <v>827000000</v>
+        <v>826729000</v>
       </c>
       <c r="E15">
-        <v>791000000</v>
+        <v>799368000</v>
       </c>
       <c r="F15">
-        <v>797000000</v>
+        <v>793310000</v>
       </c>
       <c r="G15">
         <v>654162000</v>
@@ -2181,8 +2295,8 @@
       </c>
     </row>
     <row r="16" spans="1:41">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
         <v>171906000</v>
@@ -2306,23 +2420,23 @@
       </c>
     </row>
     <row r="17" spans="1:41">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
-        <v>30000000</v>
+        <v>8796000</v>
       </c>
       <c r="C17">
-        <v>9000000</v>
+        <v>8807000</v>
       </c>
       <c r="D17">
-        <v>8000000</v>
+        <v>8084000</v>
       </c>
       <c r="E17">
-        <v>9000000</v>
+        <v>8829000</v>
       </c>
       <c r="F17">
-        <v>27000000</v>
+        <v>8756000</v>
       </c>
       <c r="G17">
         <v>8732000</v>
@@ -2350,8 +2464,8 @@
       </c>
     </row>
     <row r="18" spans="1:41">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
         <v>32925000</v>
@@ -2475,23 +2589,23 @@
       </c>
     </row>
     <row r="19" spans="1:41">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
-        <v>594000000</v>
+        <v>279072000</v>
       </c>
       <c r="C19">
-        <v>550000000</v>
+        <v>248551000</v>
       </c>
       <c r="D19">
-        <v>553000000</v>
+        <v>244664000</v>
       </c>
       <c r="E19">
-        <v>526000000</v>
+        <v>214350000</v>
       </c>
       <c r="F19">
-        <v>568000000</v>
+        <v>269327000</v>
       </c>
       <c r="G19">
         <v>216065000</v>
@@ -2600,23 +2714,23 @@
       </c>
     </row>
     <row r="20" spans="1:41">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
-        <v>1473000000</v>
+        <v>1473266000</v>
       </c>
       <c r="C20">
-        <v>1420000000</v>
+        <v>1419899000</v>
       </c>
       <c r="D20">
-        <v>1481000000</v>
+        <v>1480659000</v>
       </c>
       <c r="E20">
-        <v>1415000000</v>
+        <v>1415334000</v>
       </c>
       <c r="F20">
-        <v>1416000000</v>
+        <v>1415654000</v>
       </c>
       <c r="G20">
         <v>1251191000</v>
@@ -2725,23 +2839,23 @@
       </c>
     </row>
     <row r="21" spans="1:41">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
-        <v>3346000000</v>
+        <v>3290549000</v>
       </c>
       <c r="C21">
-        <v>2862000000</v>
+        <v>3294287000</v>
       </c>
       <c r="D21">
-        <v>3294000000</v>
+        <v>3294101000</v>
       </c>
       <c r="E21">
-        <v>3309000000</v>
+        <v>3309150000</v>
       </c>
       <c r="F21">
-        <v>3372000000</v>
+        <v>3315147000</v>
       </c>
       <c r="G21">
         <v>3316262000</v>
@@ -2850,8 +2964,8 @@
       </c>
     </row>
     <row r="22" spans="1:41">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
         <v>385832000</v>
@@ -2975,23 +3089,23 @@
       </c>
     </row>
     <row r="23" spans="1:41">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
-        <v>475000000</v>
+        <v>475212000</v>
       </c>
       <c r="C23">
-        <v>354000000</v>
+        <v>354053000</v>
       </c>
       <c r="D23">
-        <v>313000000</v>
+        <v>291841000</v>
       </c>
       <c r="E23">
-        <v>302000000</v>
+        <v>281515000</v>
       </c>
       <c r="F23">
-        <v>278000000</v>
+        <v>278183000</v>
       </c>
       <c r="G23">
         <v>236566000</v>
@@ -3067,23 +3181,23 @@
       </c>
     </row>
     <row r="24" spans="1:41">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
-        <v>472000000</v>
+        <v>141840000</v>
       </c>
       <c r="C24">
-        <v>1137000000</v>
+        <v>153773000</v>
       </c>
       <c r="D24">
-        <v>689000000</v>
+        <v>160401000</v>
       </c>
       <c r="E24">
-        <v>695000000</v>
+        <v>166906000</v>
       </c>
       <c r="F24">
-        <v>652000000</v>
+        <v>162623000</v>
       </c>
       <c r="G24">
         <v>174473000</v>
@@ -3192,8 +3306,8 @@
       </c>
     </row>
     <row r="25" spans="1:41">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
         <v>4293433000</v>
@@ -3317,23 +3431,23 @@
       </c>
     </row>
     <row r="26" spans="1:41">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
-        <v>5767000000</v>
+        <v>5766700000</v>
       </c>
       <c r="C26">
-        <v>5773000000</v>
+        <v>5773472000</v>
       </c>
       <c r="D26">
-        <v>5777000000</v>
+        <v>5777049000</v>
       </c>
       <c r="E26">
-        <v>5721000000</v>
+        <v>5720684000</v>
       </c>
       <c r="F26">
-        <v>5718000000</v>
+        <v>5717969000</v>
       </c>
       <c r="G26">
         <v>5538450000</v>
@@ -3442,8 +3556,8 @@
       </c>
     </row>
     <row r="27" spans="1:41">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
         <v>469468000</v>
@@ -3537,23 +3651,23 @@
       </c>
     </row>
     <row r="28" spans="1:41">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
-        <v>8000000</v>
+        <v>8002000</v>
       </c>
       <c r="C28">
-        <v>8000000</v>
+        <v>8001000</v>
       </c>
       <c r="D28">
         <v>8000000</v>
       </c>
       <c r="E28">
-        <v>8000000</v>
+        <v>7955000</v>
       </c>
       <c r="F28">
-        <v>8000000</v>
+        <v>7946000</v>
       </c>
       <c r="G28">
         <v>7948000</v>
@@ -3662,23 +3776,23 @@
       </c>
     </row>
     <row r="29" spans="1:41">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
-        <v>7313000000</v>
+        <v>7313374000</v>
       </c>
       <c r="C29">
-        <v>7177000000</v>
+        <v>7176977000</v>
       </c>
       <c r="D29">
-        <v>7101000000</v>
+        <v>7100730000</v>
       </c>
       <c r="E29">
-        <v>6980000000</v>
+        <v>6980451000</v>
       </c>
       <c r="F29">
-        <v>6882000000</v>
+        <v>6881870000</v>
       </c>
       <c r="G29">
         <v>6743701000</v>
@@ -3787,8 +3901,8 @@
       </c>
     </row>
     <row r="30" spans="1:41">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
         <v>7795780000</v>
@@ -3831,23 +3945,23 @@
       </c>
     </row>
     <row r="31" spans="1:41">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
-        <v>7535000000</v>
+        <v>7540219000</v>
       </c>
       <c r="C31">
-        <v>7362000000</v>
+        <v>7366948000</v>
       </c>
       <c r="D31">
-        <v>7339000000</v>
+        <v>7345214000</v>
       </c>
       <c r="E31">
-        <v>7101000000</v>
+        <v>7106326000</v>
       </c>
       <c r="F31">
-        <v>6973000000</v>
+        <v>6978361000</v>
       </c>
       <c r="G31">
         <v>6793731000</v>
@@ -3956,23 +4070,23 @@
       </c>
     </row>
     <row r="32" spans="1:41">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
-        <v>7535000000</v>
+        <v>7540219000</v>
       </c>
       <c r="C32">
-        <v>7362000000</v>
+        <v>7366948000</v>
       </c>
       <c r="D32">
-        <v>7339000000</v>
+        <v>7345214000</v>
       </c>
       <c r="E32">
-        <v>7101000000</v>
+        <v>7106325000</v>
       </c>
       <c r="F32">
-        <v>6973000000</v>
+        <v>6978360000</v>
       </c>
       <c r="G32">
         <v>6793732000</v>
@@ -4081,8 +4195,8 @@
       </c>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
         <v>13306920000</v>
@@ -4206,8 +4320,8 @@
       </c>
     </row>
     <row r="34" spans="1:41">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
         <v>546237000</v>
@@ -4331,8 +4445,8 @@
       </c>
     </row>
     <row r="35" spans="1:41">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
         <v>811362800</v>
@@ -4456,23 +4570,23 @@
       </c>
     </row>
     <row r="36" spans="1:41">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B36">
-        <v>2378000000</v>
+        <v>2301089000</v>
       </c>
       <c r="C36">
-        <v>2002000000</v>
+        <v>2434436000</v>
       </c>
       <c r="D36">
-        <v>2417000000</v>
+        <v>2416988000</v>
       </c>
       <c r="E36">
-        <v>2471000000</v>
+        <v>2471350900</v>
       </c>
       <c r="F36">
-        <v>2764000000</v>
+        <v>2689211000</v>
       </c>
       <c r="G36">
         <v>3015259000</v>
@@ -4581,23 +4695,23 @@
       </c>
     </row>
     <row r="37" spans="1:41">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B37">
-        <v>3376000000</v>
+        <v>3299345000</v>
       </c>
       <c r="C37">
-        <v>2871000000</v>
+        <v>3303094000</v>
       </c>
       <c r="D37">
-        <v>3302000000</v>
+        <v>3302185000</v>
       </c>
       <c r="E37">
-        <v>3318000000</v>
+        <v>3317979000</v>
       </c>
       <c r="F37">
-        <v>3399000000</v>
+        <v>3323903000</v>
       </c>
       <c r="G37">
         <v>3324994000</v>
